--- a/Excel/customizing_toolbar_layout.xlsx
+++ b/Excel/customizing_toolbar_layout.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Marathi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
   <si>
     <t>Customizing Toolbar Layout - Audacity Manual</t>
   </si>
@@ -52,10 +46,7 @@
     <t>If you change your mind part way through a drag or a resize of a toolbar, you can use the Escape key Esc to abort the action.</t>
   </si>
   <si>
-    <t>View &gt;</t>
-  </si>
-  <si>
-    <t>Toolbars &gt; Reset Toolbars will reset all toolbars to their default position and size.</t>
+    <t>View &gt;  Toolbars &gt; Reset Toolbars will reset all toolbars to their default position and size.</t>
   </si>
   <si>
     <t>The Grabber</t>
@@ -64,13 +55,7 @@
     <t>The grabber, the serrated edge at the left of most toolbars, allows repositioning of the toolbar.</t>
   </si>
   <si>
-    <t>Most toolbars have a grabber on their left hand edge.</t>
-  </si>
-  <si>
-    <t>Click and drag on the grabber to move the toolbar.</t>
-  </si>
-  <si>
-    <t>Any toolbar can be:</t>
+    <t>Most toolbars have a grabber on their left hand edge.  Click and drag on the grabber to move the toolbar.  Any toolbar can be:</t>
   </si>
   <si>
     <t>Moved within a tooldock</t>
@@ -91,10 +76,7 @@
     <t>The resizer, the two vertical lines at the right edge of some toolbars, allows resizing of the toolbar.</t>
   </si>
   <si>
-    <t>Some toolbars have a resizer at their right edge (the Meters, Mixer, Device and Play-at-Speed toolbars).</t>
-  </si>
-  <si>
-    <t>Click and drag on the resizer to resize the toolbar.</t>
+    <t>Some toolbars have a resizer at their right edge (the Meters, Mixer, Device and Play-at-Speed toolbars).  Click and drag on the resizer to resize the toolbar.</t>
   </si>
   <si>
     <t>When undocked, the meter toolbars can be resized vertically as well as horizontally.</t>
@@ -130,10 +112,7 @@
     <t>Showing/Hiding Toolbars</t>
   </si>
   <si>
-    <t>You can select which toolbars to show using the View &gt;</t>
-  </si>
-  <si>
-    <t>Toolbars commands.</t>
+    <t>You can select which toolbars to show using the View &gt;  Toolbars commands.</t>
   </si>
   <si>
     <t>Resizable toolbars</t>
@@ -142,25 +121,19 @@
     <t>Mixer Toolbar</t>
   </si>
   <si>
-    <t>The Mixer toolbar can be resized horizontally. Resizing gives longer scales for the sliders and hence a more accurate view of input and output level settings.</t>
-  </si>
-  <si>
-    <t>You can resize it by clicking and dragging the resizer at the toolbar's right edge.</t>
+    <t>The Mixer toolbar can be resized horizontally. Resizing gives longer scales for the sliders and hence a more accurate view of input and output level settings.  You can resize it by clicking and dragging the resizer at the toolbar's right edge.</t>
   </si>
   <si>
     <t>Play-at-Speed Toolbar</t>
   </si>
   <si>
-    <t>The Play-at-Speed toolbar can also be resized horizontally to give greater accuracy for the slider setting.</t>
+    <t>The Play-at-Speed toolbar can also be resized horizontally to give greater accuracy for the slider setting.  You can resize it by clicking and dragging the resizer at the toolbar's right edge.</t>
   </si>
   <si>
     <t>Device Toolbar</t>
   </si>
   <si>
-    <t>The Device toolbar can als be resized horizontally.</t>
-  </si>
-  <si>
-    <t>You may want to do this if some of your devices have long names.</t>
+    <t>The Device toolbar can als be resized horizontally.  You may want to do this if some of your devices have long names.</t>
   </si>
   <si>
     <t>Meter Toolbars</t>
@@ -178,82 +151,157 @@
     <t>To resize when undocked, click on the triangular resize handle that appears at the bottom right of the toolbar and drag horizontally or vertically. The meters display in vertical orientation when their toolbar height exceeds their width.</t>
   </si>
   <si>
-    <t>सानुकूलित टूलबार लेआउट - ऑडसीटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>सानुकूलित टूलबार लेआउट</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>ऑडॅसिटीच्या टूलबार सर्व पुन्हा-स्थित केल्या जाऊ शकतात (टॉल्डॉक किंवा फ्री-फ्लोटिंगमध्ये) आणि काहींचे आकार बदलले जाऊ शकतात.</t>
-  </si>
-  <si>
-    <t>टूलबारचा आकार बदलण्याचे एक कारण म्हणजे स्लाइडर किंवा ऑडिओ लेव्हल मीटरकडून अधिक अचूक परिणाम मिळविण्यासाठी ते लांब करणे.</t>
-  </si>
-  <si>
-    <t>आपण डिव्हाइस टूलबार जास्त वापरत नसल्यास, आपण त्यास त्याच्या कमीतकमी आकारात आकार घेऊ शकता किंवा ते पूर्णपणे लपवू शकता.</t>
-  </si>
-  <si>
-    <t>टूलबारचे स्थान आणि आकार बदलणे</t>
-  </si>
-  <si>
-    <t>टूलबारला ग्रॅबरचा वापर करून पुनर्स्थित केले जाऊ शकते आणि रेझिज़रचा वापर करून आकार बदलता येतो.</t>
-  </si>
-  <si>
-    <t>आपण ड्रॅगद्वारे किंवा टूलबारच्या आकारात बदलून आपला विचार बदलत असल्यास, कृती थांबविण्यासाठी आपण एस्केप की Esc वापरू शकता.</t>
-  </si>
-  <si>
-    <t>पहा&gt;</t>
-  </si>
-  <si>
-    <t>टूलबार&gt; रीसेट करा टूलबार सर्व टूलबारला त्यांच्या डीफॉल्ट स्थान आणि आकारात रीसेट करेल.</t>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Manual Home Page</t>
+  </si>
+  <si>
+    <t>Using Audacity</t>
+  </si>
+  <si>
+    <t>Tour Guide</t>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>Getting Started</t>
+  </si>
+  <si>
+    <t>Tutorials</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>Audacity GUI</t>
+  </si>
+  <si>
+    <t>Menu Bar</t>
+  </si>
+  <si>
+    <t>Toolbars</t>
+  </si>
+  <si>
+    <t>Tracks</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Customizing Audacity</t>
+  </si>
+  <si>
+    <t>Preferences</t>
+  </si>
+  <si>
+    <t>Key-bindings</t>
+  </si>
+  <si>
+    <t>Plug-ins</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Digital Audio</t>
+  </si>
+  <si>
+    <t>Glossary</t>
+  </si>
+  <si>
+    <t>All Commands</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Useful Links</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>Latest Release</t>
+  </si>
+  <si>
+    <t>WIT</t>
+  </si>
+  <si>
+    <t>This version created on 2018-09-17 - Check current version of this page (development Manual)</t>
+  </si>
+  <si>
+    <t>सानुकूलित साधनपट्टी आराखडा - ओड्यासिटी माहिती पुस्तिका</t>
+  </si>
+  <si>
+    <t>सानुकूलित साधनपट्टी आराखडा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन , शोध</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीच्या साधनपट्टी सर्व पुन्हा-स्थित केल्या जाऊ शकतात (टॉल्डॉक किंवा फ्री-फ्लोटिंगमध्ये) आणि काहींचे आकार बदलले जाऊ शकतात.</t>
+  </si>
+  <si>
+    <t>साधनपट्टीचा आकार बदलण्याचे एक कारण म्हणजे सरकती पट्टी किंवा ध्वनी स्तर मीटरकडून अधिक अचूक परिणाम मिळविण्यासाठी ते लांब करणे.</t>
+  </si>
+  <si>
+    <t>आपण उपकरण साधनपट्टी जास्त वापरत नसल्यास, आपण त्यास त्याच्या कमीतकमी आकारात आकार घेऊ शकता किंवा ते पूर्णपणे लपवू शकता .</t>
+  </si>
+  <si>
+    <t>साधनपट्टीचे स्थान आणि आकार बदलणे</t>
+  </si>
+  <si>
+    <t>साधनपट्टी वापरून बदलले जाऊ शकते धनलोभी आणि वापरून पुनःआकार आकार बदलणारा  .</t>
+  </si>
+  <si>
+    <t>आपण ड्रॅगद्वारे किंवा साधनपट्टीच्या आकारात बदलून आपला विचार बदलत असल्यास , कृती थांबविण्यासाठी आपण एस्केप(Esc)कळ एस्केप(Esc)कळ वापरू शकता .</t>
+  </si>
+  <si>
+    <t>पहा&gt; साधनपट्टी &gt; पूर्वनिर्धारीत करा साधनपट्टी सर्व साधनपट्टीला त्यांच्या पूर्वनिर्धारीत स्थान आणि आकारात पूर्व निवड करेल.</t>
   </si>
   <si>
     <t>ग्रॅबर</t>
   </si>
   <si>
-    <t>बर्‍याच टूलबारच्या डाव्या बाजूला दाबलेली धार, टूलबार पुन्हा स्थापित करण्यास अनुमती देते.</t>
-  </si>
-  <si>
-    <t>बहुतेक टूलबारच्या डाव्या हाताच्या काठावर एक हप्ते होते.</t>
-  </si>
-  <si>
-    <t>टूलबार हलविण्यासाठी ग्रॅबरवर क्लिक करा आणि ड्रॅग करा.</t>
-  </si>
-  <si>
-    <t>कोणतीही टूलबार अशी असू शकते:</t>
+    <t>धनलोभी , सर्वात डावीकडे धार साधनपट्टी , साधनपट्टी पुनर्स्थापना परवानगी देतो.</t>
+  </si>
+  <si>
+    <t>सर्वाधिक साधनपट्टी त्यांच्या डाव्या काठावर एक हिसकणाऱ्याचा आहे. साधनपट्टी हलविण्यासाठी ग्रॅबरवर क्लिक करा आणि ओढा. कोणतीही साधनपट्टी अशी असू शकते:</t>
   </si>
   <si>
     <t>टॉल्डॉकमध्ये हलविले</t>
   </si>
   <si>
-    <t>ऑडसिटी टूल डॉक्सपैकी एकामध्ये डॉक केले</t>
-  </si>
-  <si>
-    <t>ऑडॅसिटी विंडोच्या वर फ्लोटिंग विनामूल्य</t>
-  </si>
-  <si>
-    <t>टूलबार हलविण्याकरीता टूलबार त्यांच्या हडपट्टीवर ड्रॅग करून आणि नंतर सोडुन डॉक किंवा फ्लोट केले जाऊ शकतात.</t>
+    <t>ओड्यासिटी साधन डॉक्सपैकी एकामध्ये डॉक केले</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विंडोच्या वर फ्लोटिंग विनामूल्य</t>
+  </si>
+  <si>
+    <t>साधनपट्टी हलविण्याकरीता साधनपट्टी त्यांच्या हडपट्टीवर ड्रॅग करून आणि नंतर सोडुन डॉक किंवा फ्लोट केले जाऊ शकतात.</t>
   </si>
   <si>
     <t>रेझिझर</t>
   </si>
   <si>
-    <t>रेझिझर, काही टूलबारच्या उजव्या काठावर दोन उभ्या रेषा टूलबारचे आकार बदलण्यास परवानगी देतात.</t>
-  </si>
-  <si>
-    <t>काही टूलबारच्या उजव्या काठावर एक रेझिझर असतो (मीटर, मिक्सर, डिव्हाइस आणि प्ले-अॅट-स्पीड टूलबार).</t>
-  </si>
-  <si>
-    <t>टूलबारचा आकार बदलण्यासाठी रेझिटरवर क्लिक करा आणि ड्रॅग करा.</t>
-  </si>
-  <si>
-    <t>अनडॉक केल्यावर, मीटर टूलबारचे अनुलंब तसेच क्षैतिजरित्या आकार बदलले जाऊ शकतात.</t>
+    <t>Resizer , काही उजव्या धार येथे दोन उभ्या रेषा साधनपट्टी , साधनपट्टी आकार परवानगी देतो.</t>
+  </si>
+  <si>
+    <t>काही साधनपट्टी त्यांच्या उजव्या धार (एक resizer आहे मीटर , मिसळणे , उपकरण आणि गती मध्ये वाजवा साधनपट्टी). साधनपट्टीचा आकार बदलण्यासाठी रेझिटरवर क्लिक करा आणि ओढा.</t>
+  </si>
+  <si>
+    <t>अनडॉक केलेले असताना, मीटर साधनपट्टीचे अनुलंब तसेच क्षैतिजरित्या आकार बदलले जाऊ शकतात.</t>
   </si>
   <si>
     <t>डबल उंची मीटर अंडरकिंग, आकार बदलून आणि नंतर पुन्हा डॉकिंगद्वारे बनविले जाऊ शकते.</t>
@@ -262,76 +310,154 @@
     <t>डॉक्समध्ये डॉकिंग</t>
   </si>
   <si>
-    <t>टूलबार ऑडसिटी प्रोजेक्ट विंडोच्या दोन टॉल्डॉक क्षेत्रापैकी एकातही डॉक केले जाऊ शकतात, अशी जागा उपलब्ध करुन: टाइमलाइनच्या वर किंवा विंडोच्या तळाशी असलेल्या स्टेटस बारच्या वर (निवड टूलबार या ठिकाणी डीफॉल्टनुसार आहे). टूलबार त्यांना टॉल्डॉकमध्ये नवीन स्थानावर हलविण्यासाठी देखील ड्रॅग केले जाऊ शकते. पुढच्या वेळी ऑडीसिटी रीस्टार्ट करताना ऑडिटिंगच्या बाहेर जाण्यावरील टूलबार स्थिती नेहमीच लक्षात ठेवली जाईल.</t>
-  </si>
-  <si>
-    <t>टूलबार क्षेत्रामध्ये टूलबार डॉक करताना, एक काळा त्रिकोण दिसेल जो उपलब्ध डॉकिंग स्थिती दर्शवितो. डीफॉल्ट टूलबार डॉक स्थिती कोणत्याही वेळी पहा&gt; टूलबार&gt; रीसेट टूलबारवर क्लिक करून पुनर्संचयित केली जाऊ शकते.</t>
-  </si>
-  <si>
-    <t>मिक्सर टूलबार वरच्या टॉल्डॉकमध्ये प्ले-एट-स्पीड टूलबारच्या उजवीकडे डॉक केले जात आहे:</t>
-  </si>
-  <si>
-    <t>त्याच्या डीफॉल्ट निवड टूलबारसह कमी टॉल्डॉक:</t>
+    <t>साधनपट्टी ओड्यासिटी प्रकल्प विंडोच्या दोन टॉल्डॉक क्षेत्रापैकी एकातही डॉक केले जाऊ शकतात, अशी जागा उपलब्ध करुन: योग्य वेळेतच्या वर किंवा विंडोच्या तळाशी असलेल्या स्थिती पट्टीच्या वर (निवड साधनपट्टी या ठिकाणी पूर्वनिर्धारीतनुसार आहे). साधनपट्टी त्यांना टॉल्डॉकमध्ये नवीन स्थानावर हलविण्यासाठी देखील ओढले जाऊ शकते. पुढच्या वेळी ओड्यासिटी रीस्टार्ट करताना ऑडिटिंगच्या बाहेर जाण्यासाठी साधनपट्टी स्थिती नेहमीच लक्षात ठेवली जाईल.</t>
+  </si>
+  <si>
+    <t>साधनपट्टी क्षेत्रामध्ये साधनपट्टी डॉक करताना, एक काळा त्रिकोण दिसेल जो उपलब्ध डॉकिंग स्थिती दर्शवितो. पूर्वनिर्धारीत साधनपट्टी डॉक स्थिती कोणत्याही वेळी पहा&gt; साधनपट्टी&gt; पूर्वनिर्धारीत साधनपट्टीवर क्लिक करून पुनर्संचयित केली जाऊ शकते .</t>
+  </si>
+  <si>
+    <t>साधनपट्टी मिसळणे वरच्या टॉल्डॉकमध्ये गती वर वाजवा साधनपट्टीच्या उजवीकडे डॉक केले जात आहे:</t>
+  </si>
+  <si>
+    <t>त्याच्या पूर्वनिर्धारीत निवड साधनपट्टीसह कमी टॉल्डॉक:</t>
   </si>
   <si>
     <t>डॉकच्या बाहेर 'फ्लोटिंग'</t>
   </si>
   <si>
-    <t>टूलबार दुय्यम मॉनिटरसह, प्रकल्प विंडोमध्ये किंवा बाहेरील कोठेही फ्लोट केले जाऊ शकतात.</t>
-  </si>
-  <si>
-    <t>खाली दिलेल्या प्रतिमेमध्ये रेकॉर्डिंग मीटर ड्रॅग विस्तीर्ण सह ट्रान्सपोर्ट अँड रेकॉर्डिंग मीटर टूलबार प्रोजेक्ट विंडोच्या बाहेर फ्लोट दाखवले आहेत:</t>
-  </si>
-  <si>
-    <t>टूलबार दर्शवित आहे / लपवित आहे</t>
-  </si>
-  <si>
-    <t>आपण व्ह्यू&gt; वापरून कोणते टूलबार दर्शवायचे ते निवडू शकता</t>
-  </si>
-  <si>
-    <t>टूलबार आज्ञा.</t>
-  </si>
-  <si>
-    <t>रीसाइझ करण्यायोग्य टूलबार</t>
-  </si>
-  <si>
-    <t>मिक्सर टूलबार</t>
-  </si>
-  <si>
-    <t>मिक्सर टूलबारचे क्षैतिज आकार बदलू शकतो. रीसाइझिंग स्लाइडर्ससाठी अधिक आकर्षित करते आणि म्हणून इनपुट आणि आउटपुट पातळी सेटिंग्जचे अधिक अचूक दृश्य.</t>
-  </si>
-  <si>
-    <t>आपण टूलबारच्या उजव्या काठावर राइझर क्लिक करून आणि ड्रॅग करून त्याचे आकार बदलू शकता.</t>
-  </si>
-  <si>
-    <t>प्ले-अॅट-स्पीड टूलबार</t>
-  </si>
-  <si>
-    <t>स्लाइडर सेटिंगला अधिक अचूकता देण्यासाठी प्ले--ट-स्पीड टूलबारचे क्षैतिजरित्या आकार देखील बदलले जाऊ शकतात.</t>
-  </si>
-  <si>
-    <t>डिव्हाइस टूलबार</t>
-  </si>
-  <si>
-    <t>डिव्हाइस टूलबारचे आडवे आकार बदलले जाऊ शकतात.</t>
-  </si>
-  <si>
-    <t>आपल्‍या काही डिव्‍हाइसेसना लांब नावे असल्यास आपण हे करू शकता.</t>
-  </si>
-  <si>
-    <t>मीटर टूलबार</t>
-  </si>
-  <si>
-    <t>दोन्ही मीटर टूलबारचा आकार बदलला जाऊ शकतो. रीसाइझिंग मीटरसाठी लांब स्केल देते आणि म्हणूनच व्हॉल्यूमच्या पातळीचे अधिक अचूक दृश्य देते.</t>
-  </si>
-  <si>
-    <t>जर मीटरने डॉक केले असेल तर आपण टूलबारच्या उजव्या काठावर राइझर क्लिक करून आणि ड्रॅग करून त्यास क्षैतिजरित्या आकार बदलू शकता.</t>
-  </si>
-  <si>
-    <t>मीटर अनडॉक करण्यासाठी, डाव्या काठावरील हँडल क्लिक करा आणि ड्रॅग करा. आपण ऑडसिटी प्रोजेक्ट विंडोच्या बाहेर देखील ड्रॅग करू शकता.</t>
-  </si>
-  <si>
-    <t>अनडॉक केल्यावर आकार बदलण्यासाठी, टूलबारच्या खाली उजवीकडील त्रिकोणी आकार बदलणार्‍या हँडलवर क्लिक करा आणि क्षैतिज किंवा अनुलंब ड्रॅग करा. जेव्हा टूलबारची उंची त्यांची रूंदी ओलांडते तेव्हा मीटर अनुलंब अभिभाषणात प्रदर्शित करतात.</t>
+    <t>साधनपट्टी दुय्यम मॉनिटरसह, प्रकल्प विंडोमध्ये किंवा बाहेरील कोठेही फ्लोट केले जाऊ शकतात.</t>
+  </si>
+  <si>
+    <t>खाली दिलेल्या प्रतिमेमध्ये ध्वनीमुद्रण मीटर ड्रॅग विस्तीर्ण सह परिवहन अँड ध्वनीमुद्रण मीटर साधनपट्टी प्रकल्प विंडोच्या बाहेर फ्लोट दाखवले आहेत:</t>
+  </si>
+  <si>
+    <t>साधनपट्टी दर्शवित आहे / लपवित आहे</t>
+  </si>
+  <si>
+    <t>View&gt; साधनपट्टी आज्ञा वापरून कोणते साधनपट्टी दर्शवायचे ते आपण निवडू शकता .</t>
+  </si>
+  <si>
+    <t>रीसाइझ करण्यायोग्य साधनपट्टी</t>
+  </si>
+  <si>
+    <t>साधनपट्टी मिसळणे</t>
+  </si>
+  <si>
+    <t>साधनपट्टी मिसळणे आडव्या पुनःआकार करणे शक्य. रीसाइझिंग सरकती पट्टीसाठी अधिक आकर्षित करते आणि म्हणून इनपुट आणि आउटपुट पातळी समायोजनचे अधिक अचूक दृश्य. आपण साधनपट्टीच्या उजव्या काठावर राइझर क्लिक करून आणि ड्रॅग करून त्याचे आकार बदलू शकता.</t>
+  </si>
+  <si>
+    <t>गती वर वाजवा साधनपट्टी</t>
+  </si>
+  <si>
+    <t>गती मध्ये वाजवा साधनपट्टी देखील आडव्या स्लायडर सेटिंग अधिक अचूकता देणे पुनःआकार करणे शक्य. आपण साधनपट्टीच्या उजव्या काठावर राइझर क्लिक करून आणि ड्रॅग करून त्याचे आकार बदलू शकता.</t>
+  </si>
+  <si>
+    <t>उपकरण साधनपट्टी</t>
+  </si>
+  <si>
+    <t>उपकरण साधनपट्टी als आडव्या पुनःआकार करणे शक्य. आपल्‍या काही उपकरण‍ेसना लांब नावे असल्यास आपण हे करू शकता.</t>
+  </si>
+  <si>
+    <t>मीटर साधनपट्टी</t>
+  </si>
+  <si>
+    <t>दोन्ही मीटर साधनपट्टीचा आकार बदलला जाऊ शकतो. रीसाइझिंग मीटरसाठी लांब मोज पट्टी देते आणि म्हणूनच ध्वनीचा आवाजच्या पातळीचे अधिक अचूक दृश्य देते.</t>
+  </si>
+  <si>
+    <t>जर मीटरने डॉक केले असेल तर आपण साधनपट्टीच्या उजव्या काठावर राइझर क्लिक करून आणि ड्रॅग करून त्यास क्षैतिजरित्या आकार बदलू शकता.</t>
+  </si>
+  <si>
+    <t>मीटर अनडॉक करण्यासाठी, डाव्या काठावरील हँडल क्लिक करा आणि ओढा. आपण ओड्यासिटी प्रकल्प विंडोच्या बाहेर देखील ड्रॅग करू शकता.</t>
+  </si>
+  <si>
+    <t>अनडॉक केल्यावर आकार बदलण्यासाठी, साधनपट्टीच्या खाली उजवीकडील त्रिकोणी आकार बदलणार्‍या हँडलवर क्लिक करा आणि क्षैतिज किंवा अनुलंब ओढा. जेव्हा साधनपट्टीची उंची त्यांची रूंदी ओलांडते तेव्हा मीटर अनुलंब अभिभाषणात प्रदर्शित करतात.</t>
+  </si>
+  <si>
+    <t>सुचालन</t>
+  </si>
+  <si>
+    <t>माहिती पुस्तिका मुख्यपृष्ठ</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी वापरणे</t>
+  </si>
+  <si>
+    <t>मार्गदर्शक सहल</t>
+  </si>
+  <si>
+    <t>नवीन वैशिष्ट्य</t>
+  </si>
+  <si>
+    <t>प्रारंभ करा</t>
+  </si>
+  <si>
+    <t>प्रशिक्षण</t>
+  </si>
+  <si>
+    <t>टिपा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी जीयूआय(GUI)</t>
+  </si>
+  <si>
+    <t>मेनू पट्टी</t>
+  </si>
+  <si>
+    <t>साधनपट्टी</t>
+  </si>
+  <si>
+    <t>गीतपट्टा</t>
+  </si>
+  <si>
+    <t>परिणाम</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी सानुकूलित करत आहे</t>
+  </si>
+  <si>
+    <t>प्राधान्ये</t>
+  </si>
+  <si>
+    <t>कळ-बंधन</t>
+  </si>
+  <si>
+    <t>प्लग-इन्स</t>
+  </si>
+  <si>
+    <t>संदर्भ</t>
+  </si>
+  <si>
+    <t>डिजिटल ध्वनी</t>
+  </si>
+  <si>
+    <t>शब्दकोष</t>
+  </si>
+  <si>
+    <t>सर्व आज्ञा</t>
+  </si>
+  <si>
+    <t>अनुक्रमणिका</t>
+  </si>
+  <si>
+    <t>सामान्य प्रश्न</t>
+  </si>
+  <si>
+    <t>उपयुक्त दुवे</t>
+  </si>
+  <si>
+    <t>मंच</t>
+  </si>
+  <si>
+    <t>विकी</t>
+  </si>
+  <si>
+    <t>नवीनतम प्रकाशन</t>
+  </si>
+  <si>
+    <t>व्यवहारज्ञान</t>
+  </si>
+  <si>
+    <t>ही आवृत्ती 2018-09-17 रोजी तयार केली - या पृष्ठाची सद्य आवृत्ती तपासा (विकास पुस्तिका)</t>
   </si>
 </sst>
 </file>
@@ -689,17 +815,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
     </row>
@@ -708,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -719,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -730,10 +856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -741,10 +867,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -752,10 +878,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -763,10 +889,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -774,10 +900,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -785,10 +911,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -796,10 +922,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -807,10 +933,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -818,10 +944,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -829,10 +955,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -840,10 +966,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -851,10 +977,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -862,10 +988,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -873,10 +999,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -884,10 +1010,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -895,10 +1021,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -906,10 +1032,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -917,10 +1043,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -928,10 +1054,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -939,10 +1065,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -950,10 +1076,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -961,10 +1087,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -972,10 +1098,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -983,10 +1109,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -994,10 +1120,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1005,10 +1131,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1016,10 +1142,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1027,10 +1153,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1038,10 +1164,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1049,10 +1175,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1060,10 +1186,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1071,10 +1197,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1082,10 +1208,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1093,10 +1219,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1104,10 +1230,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1115,10 +1241,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1126,10 +1252,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1137,10 +1263,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1148,10 +1274,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1159,10 +1285,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1170,10 +1296,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1181,10 +1307,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1192,10 +1318,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1203,10 +1329,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1214,10 +1340,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1225,10 +1351,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1236,10 +1362,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1247,10 +1373,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1258,10 +1384,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1269,10 +1395,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1280,10 +1406,252 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
-        <v>105</v>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
